--- a/protege/sheet.xlsx
+++ b/protege/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="features" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="developer" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="franchise" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="reviews" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="346">
   <si>
     <t xml:space="preserve">Counter-Strike: Global Offensive (CS: GO) expands upon the team-based action gameplay that it pioneered when it was launched 19 years ago.
 CS: GO features new maps, characters, weapons, and game modes, and delivers updated versions of the classic CS content (de_dust2, etc.).
@@ -630,6 +631,715 @@
   <si>
     <t xml:space="preserve">Cities Skylines</t>
   </si>
+  <si>
+    <t xml:space="preserve">10-12-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very nice game ~!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermoso Juego♥♥♥♥♥♥♥♥♥♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yαмα™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usally a great game except if they release a new feature then it is unplayable until a month after...
+But still the best competitive shooter game on the market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColCori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice game :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best game ever!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">♠50Beri*Ch0pp3r♠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros
++Art is Excellent
++Combat puts me in mind of more evolved Valkyrie profile with some fighting game influence
++Soundtrack is very good
++Traversal is fun
+Cons
+-The intro is a little jarring as it just kinda happens with no lead in (very small gripe)
+-People seem to be mad about kb&amp;m controls so hopefully they will get that ironed out soon
+I want to say the story is good but i haven't got far enough in the game to comment on that yet. I haven't had any tech issues either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivet™(&gt;.&lt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This game is undercooked
+"Well why the recommend then?" you say? Because despite the GLARING spots in the game I still enjoyed it. It's one of those games that needed a neutral rating. TL;DR if you can tolerate lack of a concise tutorial, lacking practice mode, non-existent plot and many missing assets in exchange for a very interesting and satisfying gameplay loop then go for it. The devs should patch these soon, and I'll update my review then.
++ Gorgeous animations, both in game and in ANIMATED cutscenes (some of the cutscenes are animated in cutout style instead that looks like rough sketches. I'm not sure if that's a stylistic choice or not). Lab Zero probably burned their entire budget on animations again.
++ Character designs are great! Each character oozes style, combined with the animations makes them pop. Though I can't help but feel the male characters are somewhat bland and forgettable, compared to absolutely unique female character designs.
++ Awesome music. They have their own flavor enough to stand out from just "RPG music" and instead fits very well with this game's theme.
++ Combat gameplay. Though the game is based on Valkyrie Profile's 4-character-buttons system, it has more roots in fighting game mechanics. Prepare to juggle, knockdown, chain moves and special-cancel. The game actively rewards juggling with more meter for you to play with. Each character has their own gimmick, allowing even more depth in combat.
++ Good enemy variety, that has their own moves. The moves are fairly telegraphed enough that you should be able to block them, Mario-RPG style.
++ Good QOL choices: everyone levels up at the same time so you can switch at any time you like, no need to grind again. And combats are not random, enemies roam the overworld and you hit them to start combat. If the grind is tiresome you can just skip them instead.
++ The overworld platforming is good, especially later on when you have more tools to play with. BUT, there's a weird design where you have a health bar in the overworld that resets you if you run out of health and it doesn't matter anyway because most of the time you take damage from spikes that resets you immediately?
++ Razmi
++ The game is based around combos. You have tens of characters with different moves.
+The practice mode is available after about 6 hours in game, that should've been unlocked from the start. There's enough options for you to practice combos, but since you can't choose exactly who you want to practice against it's hard if you want to work on a certain enemy.
++ More than that, there's NO character move list for the game. Valkyrie Profile can kinda get away with it since the game doesn't rely much on precise moves. This game does. Having to GUESS what each character's moves do sucks when they have 2 or 3 properties. Ajna's moves evolves as she gains more tools and you just have to guess it.
++ Actually, there's very little if none at all explanation about game mechanics. At all. There's teaching through gameplay and then there's not even teaching at all, like this one. The stats are all arbitrary since there's no explanation, some attacks will not work against some enemies for no reason. A simple tutorial would've helped immensely.
++ Despite the game's impressive fighting mechanics, there's little to no reason to master it unless you're addicted to perfecting combos. You can just button mash your way through the game, since outside of more Iddhi meter there's no extra bonus for executing combos right (that I know of because the game doesn't explain anything)
++ The writing is meh at best. This is subjective on how you view the significance of the plot in this game. Although it's supposed to be an RPG where plot is king, this game focuses more on gameplay and the plot or consistency is non-existent.
++ Some characters are well written throughout the game, many others play a passive role outside of their (very short) arc, and some is straight up nowhere to be found in conversations. Literally zero lines even in the "Everyone rallies behind the heroine and go with you" scene. I suspect they're "missable" characters, but then again they could've added some optional dialogues.
++ Missing assets. Some scenes straight up have no voice acting at all. And some scenes doesn't have character portraits even though the next one in the same situation have. There's even weird moments in game where I suspect there's missing animations, particularly during cutscenes and dialogues. There's a gameplay hint if you fall down spikes that's impossible to read because it appears when you take damage then disappears when you reset fractions later. Inconsistencies like these makes me think the game wasn't entirely finished but couldn't be delayed any longer.
++ Keyboard controls. I mainly played the game on a controller so I can't go in-depth about this, but from a glance the keyboard controls in-game are incredibly clunky, which makes it hard to combo well. There are suggestions in the Steam forums and the devs are working on fixing it soon.
+As you can see, we kinda have a very rough release but fixable situation here. The cons I listed are mostly QOL nitpicks, and shouldn't be to hard to fix nor do they impact the core gameplay. Lab Zero should make a 2nd encore patch soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmhv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm having a great time with the game. You kind of NEED a controller to play the game since the PC controls are all wacky, but outside of that this game has been pretty awesome so far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prostagma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-10-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting 5 (4,5?) years to get "My OCs (do not steal) fighting evil - The Game".
+The designs are great, the gameplay is lacklaster. But the biggest offender is an incoherent and weirdly paced story. The game itself looks like a mishmash of puzzles from different boxes mashed together with brute force and hot glue.
+But the signs were there. During 5 (4,5) years of development we got only one demo and all the marketing material was focused on characters and guest appearances. My initial thought was that every character would fit a narrative purpose and maybe create an unforgettable story of growth and self-development, like each of them will give Ajna a piece of her mind, how they view world and that it's a grey place, but oh boy I was wrong.
+There was also a great part in another review talking about "Characters fighting for the spotlight in the worst way possible", I liked that phrase because it perfectly describes the situation.
+It's tongue in a cheek at best, "Look at all brawn and no brains Ajna, haha.", "I'm a funny character! I want to burn everything for the sake of comedy and off-beat humor!", "Wowie, I'm a healer, duh, let me join your brain with no explanation.", "Hello I'm protecting this mountain, I don't want you to go there, oh well you're going already, let me imprison myself inside you then."
+A bug sitting on a bench fanboying over Zod has more personality than any of presented here.
+This game makes me sad. I waited for a polished experience where I'll get revitalized Valkyrie Profile, with many secrets and abilities to use in the world, tight story telling and characters that matter.
+Why such game as Shovel Knight, Bloodstained, almost any project from Wayforward, Hollow Knight and even Sundered with it's problems were able to deliver a tight and awesome experience and these guys just messed everything? Probably because their dev. roadmap and budgeting was off, but that's just a guess. Go play Hollow Knight or Shovel Knight, support something that is a truly pristine experience with a lot of heart and love behind it instead of this mess. The budget got blown on character artists and Trigger Intro.
+Edit:
+Created a discussion with some questions to developers, I'm concerned that after such huge budget on Indiegogo and publisher funding (505 Games) they blew it so hard and keep radio silence besides "Yeah, we'll fix keyboard". Some technical director or lead game designer blew through the budget reaaal hard and it would be interesting to see how it became this, uh, "product".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldenSire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No keyboard and mouse support, I forced myself to play with DS4 felt so weird, and uncomfortable couz i dont play with controller. I may wait for update or mod to fix that.
+60 FPS capped
+The game is so wonderful so I recommend it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaakap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To anyone who lost their savefile after updating windows. Go to your Windows.old file and navigate to
+And move all the files from the folder above to this directory
+\Users\**YOUR_USER_NAME**\AppData\Local\Remnant\Saved\SaveGames
+REPLACE any files in the new directory and start the game with your save.
+Windows 10 *slow clap*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RFTA) is a hybrid between a traditional 3rd person Shooter RPG, such as
+, and the Souls-like genre. Set in a time when
+and other worlds, players will be tasked in finding a way to stop it, and in doing so
+and planets, looking for the truth about not only the Root, but also their hidden destiny.
+This mixture of genres plays out surprisingly well,
+: rolls with i-frames, replenish-able healing items, map shortcuts, bonfires, material-based gear upgrading system, special boss items, and plenty of secret areas where to find unique loot or puzzles. The Souls-like part is not predominant though,
+in the gameplay, such as upgrading Traits (passives) to build a specialized character, enemy scaling based on gear level, or equipping the right sets, weapons, and mods, which grant active skills charged by dealing damage, that best suit your class' purpose.
+Solo or in co-op, players will have to traverse various areas filled with enemies and loot, first on Earth and then in other alien worlds. Each zone has a "main path" to follow, and
+. Because of
+. As a consequence, each player can end up with different boss weapons, items, and gear pieces compared to others, because
+. Of course playing together in the same world means
+. This mechanic boosts replay-ability by a lot, with the chance of finding what was missed in the previous run, and
+, that is good.
+On the bad side, it has to be said that
+as they rely more upon spamming tons of trash mobs to create difficulty, rather than having better boss design themselves. Other than this, optimization is not very good, with slow-downs even on high-end builds in certain areas, nothing too serious. The fact
+, unbalances the late-game phases a bit, especially against the final boss, where specific mods and weapons are fundamental. Level design is also not the best,
+.
+. Offering about
+, with three difficulties to clear, good replay-ability,
+, while players just curious are better off waiting for at least a small sale.
+🔵
++ Successful mix of souls-like elements and 3rd person RPG, creating a satisfying, challenging and fun gameplay experience.
++ Three difficulties, combined with RNG world generation, boost replay-ability by a lot while also making it different, and not just the "usual grind" of the exact same content.
++ Excellent art direction and graphics, offering evocative landscapes, beautiful environments consistently.
++ Good amount of gear, weapons, accessories and passives, to build classes suitable for any play-style with a high degree of freedom.
+🔴
+- Most bosses have sub-par design, relying mostly on trash mob spam to create difficulty, rather than better mechanics.
+- Level design lacks verticality, and is rather generic, repetitive: every path and area looks very similar to others, to the point of players getting lost because of it.
+- Some gear pieces are under-powered, gimmicky or useless, could use a balance rework.
+🎮
+The gameplay of
+is divided into Exploration, Character Management and Combat.
+goes through linear levels, containing a main path with several bosses for each zone, then several secondary dungeons, which can as well contain bosses, arenas, puzzles, or other special areas from which players can get unique loot, additional XP, or quest items. Levels are randomized for each player's world, and so are the secondary dungeon types, areas, and bosses found. There is a good amount of secrets, hidden items to find for the keen of sight, so exploring deeply every zone is strongly encouraged. Some NPCs can be met during travels, many of which turn out to be merchants, selling unique loot, crafting materials, and even triggering quests at times. Most found Crystals (bonfires) can be used as fast-travel points to-and-from your base, where all traders and upgrade facilities reside.
+consists in upgrading, swapping and modding weapons, gear pieces and accessories in order to best optimize your hero for a role, such as DPS, Tank, and so on. This is done mainly at the Ward, base of operations, where several traders offer upgrading and selling of new gear, mods and accessories. Materials gathered in the world, such as Iron types or unique boss materials, can be used to improve gear or craft new ones. Trait points, gained with XP from killing enemies, quests, are used to upgrade passive abilities giving more Stamina, Resistance to specific damage types, and many other bonuses. Respec is available, but only after finishing the game the first time, as a consumable. Generally, building a specialized character with a given role is better than a jack of all trades, and since there are no usage requirement for weapons, abilities or mods, players have more build freedom. Mods power scales with weapon upgrade level, growing as the weapon they are fitted inside of does.
+is the core of RFTA, and plays out in a very souls-like fashion, where learning enemy attack patterns, dodging at the right time, learning how to use i-frames, and generally being careful about even the lowest of enemy peons, are all fundamental mechanics, especially at higher difficulties. Teamwork is essential, especially in boss fights, where some players take care of trash mobs while others dedicate only to damaging the boss. Soloing bosses and areas is also possible given the scaling system, but ultimately harder. The various damage types (fire, radiation, bleeding, etc.) from both players and bosses, with relative weaknesses or resistances and status effects, give more depth to the system, having players keep multiple damage type weapons for different situations. Consumables are very important in getting rid of said status effects, long-lasting and crippling most of the time. Overall, the combat of RFTA is a serious challenge, and generally is satisfying for both souls-fans and TPS-RPG players.
+🔩
+Some areas have slowdowns even on high-end systems, but generally the performance is acceptable without many major issues to report. No crashes or major bugs to report. [Ryzen 9 3900X, RTX 2080Ti, 32GB RAM DDR4].
+Overall, RFTA is definitely
+, creating an ultimately satisfying and challenging gameplay formula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has so many things going for it that it's hard to believe.
+The attention to detail is honestly impressive, especially with the dynamic generation of each map.
+- The atmosphere is captivating, every where you go, every thing you see sets the mood of the area very well.
+- The enemy design is refreshing, each area has different sets of "grunt" enemies, and different sets of "elites" so each encounter feels completely different than the last.
+- The story/lore is quite extensive if you actually want to sit down and understand it.
+- The gunplay mechanics are very snappy and satisfying and the balance of melee and gunplay is very well implemented.
+- The
+Oh my days; The LOOT.
+Now, this isn't a normal looter shooter, ex. (Borderlands, Destiny, etc.) where you get a bunch of useless weapons, a few good ones rarely, and legendary ones even more rarely. No. Every boss you kill drops a signature item, specific to that boss, which can be used to craft a weapon or weapon mod. This system encourages you to play through multiple times to eventually fight every boss, and get every item. On TOP of every boss having specific loot, multiple bosses have
+ways to kill them for ANOTHER piece of gear!
+On top of bosses dropping items that turn into weapons/mods, there are random encounters and puzzles around the worlds that grant you armors and other non-boss related weapons.
+Seriously, this game just has so much to look out for that if you never check every inch of the map, you're likely to miss something every run.
+- The difficulty at first can be a learning curve. I for one enjoyed learning the mechanics of the bosses, but if you're someone that doesn't enjoy dying over and over again, or always looks for a way to
+bosses, then this game is not for you.
+While some of the bosses do have some cheesey methods to kill them quickly, I can assure you those are only capable on Normal and not Hard or Nightmare.
+- The content of the game can seem to run out quickly if you get a couple back to back runs with multiple new encounters each time, but that is RNG based. I've so far logged nearly 40 hours and have ~70% of the in game items.
+- Walls are not your friends. What I mean is, some, if not all bosses, can hit you through walls with melee attacks that you would normally feel comfortable near. One boss in particular has a stretching arm attack that can go through pretty thick walls in his encounter which can catch you off guard. While this is easy to play around when you learn of it, I still don't think it should be in the game because bosses are already a ride of their own.
+Overall, Remnant is a steal for $40 USD. I can't wait to see what's in store for the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-09-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is always the burning question I ask myself when a new prosperous game is released and like many gamers out there, I have a
+for buying games and not playing them... So is this game worth a buy? Is it worth your money? Is it going to keep you captivated long enough before the next hit-title to come along and grab your attention?
+The short answer -
+It's completely and utterly worth your money.
+If you want to know why, keep on reading.
+Overall the game is solid.
+Great graphics. Brilliant to play with friends. Loads of re-playable content. Costs less money than a AAA-Title release, yet feels like a AAA-Title game. I can't grumble, best buy of the summer.
+I'm almost 30hrs into the game when writing this review and I'm on my third play-through. There's still a lot of stuff I'm yet to unlock or level-up skills in, but I am now reaching a point that I'm craving some new content - new enemies or a fresh map to explore. So it will keep you happily entertained for quite some time, but you will reach a barrier where you're waiting for some DLC to drop. Thankfully there is plenty of DLC on it's way with this game and my final word is that this game has HUGE POTENTIAL going forward.
+I am excited to see what else will be in store.
+Definitely pick this game up, you won't be disappointed if you enjoy - Destiny/Dark-Souls/Gear of War.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PuNk!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-12-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Steam Awards 2016 wins (from 2 nominations). I mean, how could a truck game win such prestigious awards? Just like Donald Trump - it's a good game, even if you hate to admit it.
+Just try not to riot and burn down servers, thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleepler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great game they update it alot they also have multiplayer that is free lot of mods and dlc that you can put in your game easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jake T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-12-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know most "XYZ Simulator" games are utter crap, but this is the real deal. A great game that still gets updates and new content all the time. From the developers blog, one can see that they really love what they do, and they really love this game. Not really a helpful review, is it? Well, I just wanted to say I love this game, and the developers deserve lots of respect, unlike some spoiled brats that call themselves developers these days...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funny game, lets take the trucker cap on and say houdy! :D
+I recomend this game, dosent need specially PC to run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing.... but you need a good graphics card, upgrading mine and the power supply soon aha, I can still play on med to low setting and look alright :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sambedford101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-02-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intresting Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stumk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-08-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNNNN! i really reccomend this game to all you guys who dont have it. like minecraft with guns! but rememeber this rule... DONT TRUST ANYONE!xDa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-08-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome survival Game to play with friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya boi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i found this game to be crazy cool i was lucky enough to have gotten this game for free but the endless building and raiding on this game smakes it awesome the maps are big and the time you invest in this game is a smile on your facethe whole time 9/10 rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockeygun233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is good if you like surviveing games and pvp games. it has a lot of bugs but i don't find them a lot. and you don't have to play pvp you can make your own server and play with your friends or just find a no pvp server  if you buy it
+GOOD       LUCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15PoundsOfJelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-06-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really great game with great city, traffic mechanics.
+If you are into City building, tycoon games or Sims series - this game is definetely for you.
+I thought I would enjoy it but I guess I've played too many racing and rpg games and I find this a bit boring for myself.
+Still there is nothing bad I can say about this game - it's great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax | arl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best city builder I have ever played. This game is like the fairly new Sim City but with alot more put into it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSovereign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent sim, rather hard at 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OhioMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-11-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10 - Better than Simcity!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">玲音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|Rein</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">04-10-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree with all the comments on how awsome it is and i agree to buy it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-05-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been stuck at home due to cancer, in constant pain 24 hours a day for the past 5 years. I can honestly say, it only became bearable when Total War Warhammer came out. Thanks to both this and the previous game, I've managed to put up with it. I am a huge Warhammer fan, and not only have the stuck to the lore wherever reasonable, they have filled out improved pieces that Games Workshop never really touched! (zombie pirates anyone?)
+The first game was amazing, and the improvements of this one shows the developers actually listens and implements some of the suggestions of the community. Not to mention the modding scene at the moment is incredible, as is the support for them from the developers. I have a couple thousand hours on this, and can't recommend it enough!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey Wheeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-09-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This game has ruined strategy games for me.
+The sheer quality of Total War: Warhammer II is why it's hard to justify playing Three Kingdoms. It's why Civ doesn't do it for me anymore. It's why as I creep towards 200 in-game hours. I haven't touched half the content on offer.
+This game has an embarrassment of riches available to the consumer. Although buying into the full playset can be very expensive. The base Total War Warhammer II comes with four races. The Lizardmen, Skaven, and elves both High and Dark. This alone is a lot of content. However, if you own TW: Warhammer I, then all of that games races and DLC are playable in a massive 50 hour campaign called Mortal Empires. This is a highly satisfying game mode which CA released for free. As the game currently stands, just before the Huntsman and Beast DLC which marks the third small DLC and fifth overall for Warhammer II, there are around 20 to 30 legendary lords (each representing a faction) to embark on the Mortal Empires campaign. There is also the smaller Vortex campaign exclusive to Warhammer II factions. There is just so much content here for players to enjoys, but it does come at a price.
+To buy Warhammer I, II and all of the DLC at full price it would cost over $100. Now there is over a thousand hours of content in the game, but it's a hard ask for someone to put up all at once. When buying, you have to remember this DLC released for a very popular couple of games over four or five years. Some packs are worth more than others. The prophet and the warlock unlocks some really important units for Lizardmen and Skaven, and isn't bad at $8. The Grim and The Grave though? I could live without those units. The curse of the vampire coast unlocks three factions, a new race, and campaign. This is pretty valuable to spice up the game after a lot of time with it. However, older race packs like beastmen and wood elves struggle to provide value for the cost other than having the race itself.
+My suggestion for someone interested in this game is to buy WHII. You find a race you're interested in and then buy that lord pack. If you like Skaven, buy Prophet and Warlock, if you like high elves, buy the Queen and the Crone. It will add valuable units to your favorite race and new lords. Then over time add to the game as you want to do other things. Grab WHI and it's DLC when it is very cheap on sale. You probably will never actually want to launch the client other than trying out the old world campaign.  (Which I hope they revamp and add into WH III)
+However, once you have all the content (including the loads of free content) then the full playset that is Warhammer II feels like one of the most expansive strategy or board games ever. It's enough to keep you busy for endless hours. And if you're me, possibly make other strategy games seem lesser by compassion.
+One thing I will nitpick is that diplomacy is limited. Three Kingdoms does it much better and I hope that is the something CA brings over when they do TW Warhammer III. Also, turn times are very long. Like make a cup of coffee between turns long. This is something CA also needs to address in the next game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HadesWTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-10-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163 hours later, I've finally beaten this thing. It's a beast -- a sprawling grand strategy game full of nuance, lore, and emotionally engaging content. The AI is much smarter now. I had about a 100-hour learning curve, bouncing between different factions and trying different tactics until I really figured out how to play the game. This thing is amazing. I have to put it down for awhile so I can go get the million things done that I've been neglecting, but here are some pointers:
+1. Gain as much control of your continent as possible, as soon as possible. Make sure you can recruit some sort of troops anywhere in your empire, so you can quickly sprout new armies in the late game.
+2. Grab as many towns that produce your strategic game-winning resource (scrolls, tablets, etc...) as early as possible. Garrison these towns, and defend them.
+3. Station armies in your ritual sites before you start the ritual (bad guys show up fast), and have an additional army right outside the gate for reinforcements.
+4. Don't march armies of less than 20 units. Don't garrison armies of less than 20 units. As soon as you stretch yourself thin, this game devours you. It's better to march three armies from town to town than to try to take three towns with three armies in the same turn.
+5. What I did, in provinces: Minor settlements: garrison building/economy building/growth Provincial Capitals: Specialty and military buildings.
+6. Have a plan. Your plan may vary, but here's a good plan: Reinforce the crap out of your starting continent. Once it's nice and fortified, go forth and conquer. It will cost a lot to invade another continent. Don't give in to the temptation to build a bunch of economy buildings in your newly conquered territories. You'll need to build new armies on these new continents, or you'll quickly get kicked back into the ocean. So build some recruitment buildings when you get there, and start up your economic expansion as soon as possible.
+7. Buying interventions to attack your enemies is expensive and not very effective, especially late in the game. What's more effective is to grab up as many strategic resource sites as possible, garrison them, keep armies there, and outpace the enemy to the end. That said, if the opportunity presents itself to take the other guy's capital city, it's very satisfying.
+8. It should go without saying, but skill up your generals to buff certain types of troops, and keep those types of troops in his or her army.
+9. Old Total War tricks don't work (for example: lay seige, retreat when the army inside sallies, army follows you and attacks out of range of reinforcements, you kill that army... yeah, that doesn't work anymore).
+10. Squishy troops stay squishy. Abandon all hopes of buffing up your weakest troops to someday be amazing. Build the highest level troops you can afford to build and maintain, and skill up your generals to buff them further.
+11. It's better to fight them over there, then to fight them over here! Keep your homeland heavily fortified (2-4 armies at your capital city, 2 for early game, 4 for late game). Maintain a robust economy, so that you can quickly field strong armies, and keep strong armies stationed around your continent. Once you've established the TWWH2 equivalent of Fortress America, send your armies to kill the bad guys on their own continents. Late in the game, I played a continuous game of take three colonies, lose one colony. It sucked losing colonies and generals, but it distracted the bad guys from attacking my homeland -- which they could've conquered if I hadn't have divided their focus.
+12. Don't forget to trade. Trade is awesome.
+13. Get rid of all troops and generals you don't need. Use the gold you save to build and deploy armies that are needed elsewhere.
+14. The game is very well balanced, so doomstacks (19 dragons, etc...) can lose to their tactical counterparts (spearmen, for example).
+15. Fighting Skaven sucks, because they constantly ambush constantly, and pick off your armies one at a time. You will love life a lot more late in the game if you just murder them all early in the game. Early on, they're pretty weak. If you let them take substantial territory and get a solid economic base, they'll become a huge pain in the butt. If you can kill them all early without fighting a war on two fronts (again, don't stretch yourself too thin), DO IT. They get truly awful later in the game.
+And that's all I've got. Good luck! It's a lot of fun. I highly recommend it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malum Venenum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My most epic Total War: Warhammer moment: When my line of Chaos Chosen was about to charge into enemy line, one guy screamed “BLOOD FOR THE BLOOD GOD”,and then the whole army continued “SKULLS FOR THE SKULL THRONE”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DON_Shake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's been a lot of talk since November on the discussion boards involving uninformed consumers not understanding how this iteration of Total War works DLC-wise. For that reason, I'd like to take a second to tell you, the potential customer, what you're getting into, and why I still feel it's worth it.
+tl;dr at the bottom.
+This game is expensive. A bit more than the DLC list lets on. In order to get the full experience out of this game, you need to own the prior Total War: Warhammer and its DLC as well. This allows you to play with the factions from the first game and the factions from the second game in a map encompassing both games in a campaign called "Mortal Empires". You do
+need to have the first one installed to play its content in the second one, and you do
+need to buy the blood pack again. They just leave that out of the initial release so they can market it as T for Teen. Take that, ESRB! But yeah, off-sale, at the time of this review (2/14/2018), you have to spend
+to play the whole game. "Sheesh," you must be thinking, "That's a steep entry fee!" Well, I doubt you buy games off-sale these days (I know I don't), and it's important to know that not all the DLC is necessary. You could get by spending $74.38 for 1 and 2 during a sale (TWWH2 usually goes 10% off and the original 50% off) and picking up the free-LC that came with the first installment. If you participated in Make War Not Love 2018, you received The Grim &amp; The Grave DLC for the first installment free. If you want to play Greenskins in Mortal Empires, I'd recommend having The King and the Warlord as well, as it provides you with early-game armor-piercing units (Nasty Skulkers) and a lord tailored towards goblins, who are probably going to be a good chunk of your early armies (and, if you're Skarsnik, your armies through the entire game). That's all I usually use, since most of my hours clocked are on Bretonnia, a free faction from the first game. Even then, that's no small chunk of change, and it begs the question, "Why is it so pricey?"
+This is probably the only way Sega agreed to make something so in-depth; anything less would've been either not funded or would've faced serious cuts in content. Keep in mind that the end goal is to put every tabletop faction from Warhammer Fantasy into the game as a fully-functional, playable faction. CA wanted to make the whole game, so they were forced to piece it out. By piecing it out, Sega could gauge interest (by the first one) and retention (by the second one), each time having the option to pull the plug if they thought continued investment would not be profitable.
+Does it suck? Yeah, strategy's a dying market, and while it's nice to see a big publisher at least try to give it attention, they want the results they see in other genres here. I've been lucky enough to receive most of the series as gifts; I've personally spent about $100 on it and have what is currently the full collection.
+Considering I've gotten almost 800 hours out of the two, I think that's a fair price (about $0.13/hr). I spent about that much on Warframe when I was into that, and my friends frequently drop that same amount on gacha games.
+Even divvied up like this, there's still some noticeable omissions, Mods make short work of that, though. Kislev, while primarily still an Empire reskin, can be led by Katarin the Ice Queen; Averland, by the Mad Count; Parravon, by Cassyon. The Southern Realms have a fairly high-profile rework that I'm partial to as well. Games have been partially developed due to time constraints for a long time, but modders always rise to the occasion.
+Unfortunately, one thing that doesn't seem to have a fix in the works is the fact that there is no naval combat. According to CA's representative on Reddit, Grace,
+So if you were that one guy in Shogun 2 who got hyped every time his fleet got intercepted, this might not be for you.
+I honestly believe CA has a strong passion for doing this franchise justice, despite everything that's been thrown at them. It shows in the little things, like the flavorful faction mechanics and the strikingly honest dev diaries. With how well this game is selling in revenue, judging by Steam's "Best of 2017" listings for "Top Sellers", I think this game is going to be supported for at least the next year or two, at which point it will continue to be supported partially in the form of Total War: Warhammer III's merger of 1, 2, &amp; 3's maps and factions. Eventually, we'll have access to CA's dream from the start: every Warhammer Fantasy faction sharing a world together.
+Other people have probably said this better than I can. If you've played Total War, you'll adapt quick enough. Magic slaughters clumps, monsters fill an infantry support role similar to tanks in the 20th century, and the threat of death from above further pushes the ranged meta the series has always been a bit guilty of. Once they close in, though, melee fliers can tear through most archers, definitely meaning they're worth their salt.
+If you haven't played Total War, there's a turn-based strategic overworld where you make decisions for your faction (remember to build economy!) and, when your army encounters an opposing army or settlement, it becomes a real-time tactical battle where you control the units you amassed. Melee in the front, archers in the back, cavalry flanks from the sides or harasses the enemy. After the enemy's morale is shattered and they're routing, you've won! Or you can autoresolve and not spend a second in the field.
+I would recommend adding Steel Faith Overhaul to your modlist, as it addresses some campaign map imbalances currently ailing Mortal Empires (anemic Dwarfs, off the top of my head) and provides a few new toys without bombarding you with a plethora of unbalanced options *cough*
+*cough*. Feel free to pick and choose in the Workshop! A man's mod setup is his self-expression, after all. I've also penned a comprehensive guide on playing Carcassonne, a Bretonnian subfaction, which you can find
+Now you too can tackle the least-played faction from the original game and turn them into crusader extraordinaires!
+Get Total War: Warhammer 1 when you get this one because Sega was cautious about this venture but Creative Assembly's trying their darndest anyways. Total War gets a bona fide fantasy makeover and it's gorgeous. SFO &gt; Radious. Toodles!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☢standardheadache☢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-07-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">♥♥♥♥ing fantastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eflit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-07-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recommend this game 100% to people who want to try a combat game that doesn't use actual guns on the battlefield. It uses very unique weapons and classes. It's fun trying out the classes, but your KDR in-game might be bad at first. You just need to find a class you're best at and you'll do just fine. For me, the Pyro was an instant success. Pyro is a class in TF2 that gives you the starting items: Flamethrower, Shotgun, Axe. If you have fun with it, you'll notice items you want, or items you see people commonly using... so get out there and you might be able to get one of 'em.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-07-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">really good game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIBEARNATION1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-01-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Fortress 2 is a very, VERY addicting game to play, It has lots and lots of gamemodes and maps for you try out, Official and   Not official, either way, They're all very good. What is the best part about this game? The community. You can trade for weapons, miscs, and best of all in this category, HATS. And this is all Free To Play! (Obviously) Some parts might make you rage, but most of the time, its an amazing game to have fun in, and blow up people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-07-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love this game, it's very funny. It's shooter, also dance simulator, fly simulator, kill-yourself simulator and more. I've played this game 300+ hours and I like it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DELETED]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-11-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to win this game, just fly Ameriblubber in Realistic Battles, or Brits and Russians in Arcade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elia$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome!
+New destruction patch is better than EA's Frostbite 3 engine!!!
+They bring our beloved matchmaking system from previous patch to the latest one too!
+That's a good new I guess...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-12-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When i tried out the game it was very fun. Though i had to delete because of memory space issues, it was a rather fun game will i had it. War Thunder takes you to the pacific or european battle fields where you have the choice to engage in in single player missions or take the fight online against other players in a massive team death match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comrade_Squidward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recommend this game as it is action packed and insane. This game has both air force and ground forces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemonTiger8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-12-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I SHOULD BE ABLE TO KAMIKAZE ♥♥♥♥♥♥♥♥♥♥♥♥S THIS IS BULLLLLLSHIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-03-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm an older woman, and I find that this game appeals to all ages.  I have sooo many hours into this game and I love it.  I admit I need my sons help and his friends to get me through things sometimes when it's a monster that's kicking my butt.  I'm now at the stage where I can do it on my own.  I think they did an amazing job with this game.  It doesn't matter how old you are, this is so fun.  I highly recommend this game.  Thanks for doing such a great job with this game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shantiwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not a fan of coop games and I really hate grinding but the goal of this game is grinding in coop. After seeing lots of positive feedback I decided to jump on this game and I was very pleasantly surprised.
+For those who don't know what this game is about, it is what the name tells you – a monster hunter game. You hunt monsters, gather resources, craft new gear to hunt stronger monsters to get better gear. That’s it, very simple formula, but gameplay is really amazing.
+The game has a story mode which purpose is to teach you about everything slowly. Step by step you complete the assignments, unlock better gear and stronger monsters and when you finish the story the real grind begins. The grind is in no way bad in this game. Yes sometimes when you’re short on some common items going to hunt some weak monster could feel like a waste of time, but most of the time you’ll be hunting strong monsters.
+Hunting is not as simple as it sounds. First you need to track the monster by finding its tracks which could take some time if the monster is completely new for you.
+There are lots of weapons to choose and you need to learn the weapon you choose because they all are different and can change your play style completely.
+It plays like an action game where you attack and dodge. But the fun part is different monsters. They have different moves which you need to learn, you need to read their moves and prepare for their attacks. You can’t just run to the monster and mash the attack button to kill it. This tactic would only work on monsters bellow your level. First you need to choose the right gear with right stats for each monster. You need to avoid strong attacks and find a window to hit the monster and use healing items. You can also use other items like traps to capture the monster, but first you need to weaken it. You can cut-off and break various parts of monsters, like cutting off the tail for example. After you finish the monster you can collect its parts and use them on crafting weapons and armor. Oh and one more thing – you can use environment to your advantage, like shooting a huge rock which falls on a monster. Or another monster could wonder into the same place and attack the monster you’re fighting.
+You also have a little helper called Palico. It’s a cat-like being which helps you in the world. He can do some damage to the monsters or heal you. You can craft armor and weapons for him and make him cute little kitty.
+Number of monsters is pretty good, but some of them feel very similar to each other. They look similar and their moves are very similar. I wish we had more completely different monsters. I know dragons are fun and cool looking but it’s a game, developers could think of a way to add different monster while not completely breaking the lore. Wouldn’t it be nice to have a bear-like monster which could give you a deathly bear-hug?
+I love this collaboration with other games like Devil May Cry, Final Fantasy (which lets you turn your Palico into Mog) or Witcher. There’s even a Witcher quest-line and a monster from Witcher universe to fight.
+From time to time there are events happening which add more variety in quests and craftable gear. They usually are pretty challenging and require teamwork.
+The game can be played solo or coop. You can play solo but if you’re not very good you’ll have big problems defeating stronger monsters, so you can fire up the SOS flare and wait until someone comes to help you. Or you can jump into someone’s session who’s doing the quest you need and help him thus completing the quest for both of you.
+Surprisingly playing with random players are pretty good most of the time. But sometimes it’s either too hard to find someone playing a certain quest or people just leave the quest. That’s when you need to message your friends and ask for help.
+Graphically the game looks pretty good. It’s not something special, I guess it’s running on an old engine, but overall graphics are good looking. Performance on the other hand could be better. It’s not bad, but if you want to have 60fps on max settings you’ll need a powerful PC. The world is well crafted and locations look amazing. Maps are huge and there are lots of things to discover.
+Monster Hunter World is a wonderful game and I recommend it to anyone who likes action games and it’s a must have for coop lovers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosmozuikis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm in my mid 40's so I don't always have a lot of time to play games but Monster Hunter: World has me hooked. Since I only can devote about an hour or so every night I just set a goal of what I want to do such as killing or trapping Anjanath to gather parts for the armor set. It's slow going for me, but I don't mind taking my time because the fights are fantastic and sometimes last 20 minutes or more of pure adrenaline-pulsing bliss where a well-timed Palico heal or quick dodge or a perfectly aimed hit makes you feel like you are actually fighting a real monster and that your own life is really on the line.
+This game is what I dreamed video games would be when I was a kid in the mid 1980's: it's fun, it's drop-dead gorgeous and runs at a nice buttery-smooth 60fps (on my RTX 2060 and Ryzen 5 2600x with 16GB RAM), and overall it's just insanely fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AtomicTsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you ever get bored of the end-game grind, here's a small list of things to do that may make you feel a little happy.
+1. Try a new weapon. I can't stress this enough! Don't just stick with one weapon, try to learn them all. You'll definitely find something that fits you best, but knowing another weapon makes you want to do hunts again and again. You will get a lot more hours doing this.
+2. Play with friends, or with randoms. While in most games, playing with randoms can hinder your gaming experience, but that's with all multiplayer games. There are bad apples, but in a coop game, they're not nearly as problematic. When playing with people, you can and will have moments that will highten your experience. Like in Level 6 Kulve Taroth, jumping down and breaking her gold coating on the horns with just one hit while your teammates drop rocks on her tail, while also ruining her precious golden mantle. You can seriously get a good sense of comradery when playing with people. As for friends, do the same thing, but also take on hunts that challenge you. If you find a monster annoying, keep fighting him. Learn his quirks. This game is as much a learning game as it is a fun game. Learn weapons, learn monsters.
+3. Go on an expedition and just watch the monsters. Throw on a ghillie mantle to cover your tracks for the more fierce monsters, but explore and capture small creatures you find. This game has fantastic monster behaviours. In the Rotten Vale, I suddenly found myself next to an Odogaron, and I prepared to fight him after he roared, but soon he continued walking away. Following him from a distance, I then found him going about his daily routine, which was scavenging for food to bring back to his den. Every monster has their own quirks out of combat. They're not soulless creatures, which makes the experience even more fun knowing that they are closer to animals than virtual creatures created for slaying.
+4. The obvious, "do all the quests." Optional quests, other quests. Every quest. Blue completed optional quests do not count, you must make them orange! Do this, and reach HR100 so that you can simulate the final episode of Neon Genesis: Evangelion and just be congratulated by everyone.
+5. Finally, make your own builds, use whatever weapons you want. Every weapon is viable in this game. If you like the look of a weapon, use it. It doesn't matter, make it yours. You can use meta weapons and meta builds, and while it may be fun for a while, it may get dull. Do something unique, take chances with your builds and find something that suits you. Vitality decorations mat be useless for someone's build, but it may save the life of a build built around fast regeneration and maximum immortality.
+That's about it. I'm writing this late at night, so excuse typos.
+Maybe those things to do will help you out a bit. Maybe it'll squeeze out a few more hours, or maybe it'll conjure a few hundred. Anything and everything you can do to help your end-game grind, find it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sciiyla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty fun, both solo and multi, don't believe the mixed reviews those were all due to the bad launch, the game is a very solid edition to the franchise and as its own game. It's very friendly to newcomers and challenge ramps up as you progress through the vibrant New World.
+Hunt, gather, craft sets, get better gear, weapons, to hunt bigger monsters. Gear only helps you up until a certain point, skill will still win the day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragosta tin Dei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOOK AT MY HOURS PLAYED. I waited 15 months to write a review. I've pretty much done it all. I'm running around at softcap with pretty much all content acquired. This game IS damn amazing. Today, 24th of August 2018, they made the game truly pay to win. I'm not talking "added a ghillie suit to the cash shop" or anything like that, I mean full-blown swipe your credit card to become stronger than anyone who put effort into the game or is skilled at pvp. If you as a gamer, value skill and talent over who has richer parents than for the love of god stay away. There is so much more fun to be had elsewhere. This game is officially dead with this change. I urge all players to leave a negative review to alert people who may fall for this scam-game.
+The devs went back on their promise that they would not make NA P2W. Not only should you stay away from Black Desert Online, but you should try not to forget the developers; "Pearl Abyss" and the Publisher "Kakao Games" as we certainly will see them again in the future to further scam their playerbase once again. If there is any comment you read about BDO that you pay attention to; its this one. DO NOT. I REPEAT: DO NOT WASTE YOUR TIME/MONEY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-06-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, where to even begin. I guess the most important thing here is that this is certainly not the MMO for everybody. This MMO manages to pack in something for every kind of player out there, but that actually doesn't mean it will appeal to everyone.
+First of all, I'll cover the topic of the pricepoint, since in the very most lenient sense here, it's "variable".
+It's $10 to get into the game. No monthly fees, nothing. That's pretty handy. The price point is at least low enough that for most people, even if they don't like the game, they won't have lost out on much. Now, chances are, the price point is that low because THERE ARE MICROTRANSACTIONS, IF YOU WANT THEM. I'm putting this at the beginning of the review because I know that this will either immediately deter people, or encourage them to hear me out on this. The best way I saw these described was as "conveniences". You can get items that rival the cash shop items, but it will take time, and it will take effort. But, there is nothing to stop someone from simply getting a headstart on the game by dropping a little extra money on the game. Is that bad? Well, at a $10 initial price point, I don't think so, because almost all of the cash shop items are convenience items, i.e. streamlining workers, getting a nicer boat without investing time into it, getting gear to speed up fishing initially, etc. The game counteracts this by allowing a lot of things to be completed AFK, such as fishing, or even autolooping a running path to level up your stamina (seriously, you can just have your character run infinitely between two points and get levels out of it, I can't make this up). Need to level your mount? Check the "auto feed" option, stock up on carrots, set an autoloop, and go sleep or do productive things while your character travels between points A and B and your horse learns new skills. So honestly, the cash shop items are certainly a thing which most people would look down on, but I haven't even seen the need for them. That said, I could have higher tolerance for grinding (see my Maplestory hours, let's not talk about it).
+Now, on the topic of grinding, this IS a korean MMO, and it's gonna involve a lot of grinding. The AFK system is honestly a god-send, I'm telling you. However, the combat is very dynamic and frankly the best I've ever seen in an MMO (it does seem very similar to TERA, but definitely more rewarding and satisfying). For skills grinding, a fair amount of it can be done while tabbed out, so the grindy feeling there is alleviated to a fair extent.
+As far as skills versus combat, this game does a very good job of letting you choose your own playstyle. Want to make it to the second town and then level all the way to 55+ and make millions by fishing? Sure, go ahead. Want to immediately start a farm and create a monopoly on food goods in the player marketplace? That works too. Set up trade routes between nodes and make all your money and experience through buying low and selling high, it doesn't matter, you get rewarded with level exp for so many things in this game, you can choose how you want to play the game. You can even treat it almost as a single-player game with the Black Spirit quest line, so play how you want to. And hey, if you're still into the kill-quest style MMO, that's all here for you too, and you won't even have to touch the other skills. It's relieving to play an MMO that lets you decide how you want to play it.
+Something I have not been a part of yet is the guild system, which entails warring over territories or capturing areas to claim tax to pay guild members and such. I don't know too much about this, but from what I've viewed, it seems incredible to wage all-out-war with other guilds for essentially control over money. The PvP seems to be a big part of this game, and I'm hoping to make it to that end-game experience soon. And yes, before you ask, these wars DO entail forts, cannons, armies, etc, which just seems super awesome. Other guilds though seem to take the game casually, and only want a community to play with, so that's diversified as well.
+Now for the more technical stuff. The graphics are gorgeous, the combat is fluid and feels OH SO GOOD, and the AFK feature is even enhanced by an option to minimize the game to the tray. The chat is very spammy with system notifications when you first join the game, but the settings menus help with all that and it should take you just a couple trial-and-errors to figure out what you do want to see broadcast and what you don't want to see. The quest handling is nice and will even autopath you to destinations, and despite minor environmental hookups (I got stuck on a staircase once) it's a very reliable system and can streamline the early game.
+Now, so after all of this, why can't I recommend it to everyone? I mean, I'm giving it a thumbs up, am I not? Well, it's because there is very little explained to you in this game, and that's probably because if they did, you wouldn't ever end the tutorial. The game has so much complexity to it that you're going to want to have YouTube open, whatever databases or guides you can find, a friend on skype, really anything to help you understand a new part of the game you've decided to dabble in. For some, that's incredibly daunting and I can't say everyone would enjoy the game based on this aspect. And this isn't me saying "GO BACK TO YOUR BABY MMOS YA BABIES" I mean seriously, this game is a lot to take in and I'm surprised even I can handle it. While I believe you can take the game in any way you like, you still might get curious one day and find a whole new aspect to the game that doesn't suit your fancy, or it's just so horrifically complicated at first that you aren't going to understand it until your 15th fail stack. Now personally, I don't mind having to research an aspect of a game, and I even personally have a journal where I jot down notes for all sorts of games I play (I'm a huge nerd, I know this). But some people want to hop in and just play to end-game, which is okay. Having to find and research your way to the end-game isn't always fun, and I understand that.
+So with all of that said, my final verdict is this: if any of this sounded appealing to you, give it a shot. Given that it casts it's net very wide, you can probably find something you'd enjoy in this game. But, be prepared to do some research, as some of the time you're just going to be confused, no matter how much experience you have with MMOs or in-game economies. If the mention of a cash shop that DOES benefit players deterred you entirely, then, ah well, that's fair, and I'd even encourage you to look elsewhere. Despite it being solely convenience items, I can't dispute the fact that they do exactly that. And finally, if all of this sounded appealing to you, I almost plead with you to play this, as I ended up finding the MMO I was looking for, and I hope you do to.
+Thanks!
+-Scrumpy
+Edit: Wow! Thanks for all the reception everybody. Glad to see this review is helping people. After discussing the game with a prospective buyer, I realized I totally forgot to mention that the Black Desert Online site DOES ALLOW A 7-DAY TRIAL. Please note, the account used for that trial and the account used in Steam CANNOT BE LINKED, but this is a way for you to try the game and see if you like it! If the $10 or the cash shop is concerning, give the trial a chance and see, and then decide what medium you would want to purchase it on. I'd recommend using the trial and then coming to steam to start anew and know what direction you want to pursue, but please keep this in mind! Hope this helps!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheScrumpy [NMT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This game is beautiful and Fun for a couple hundred hours but :
+- Eventually enhancing your gear and playing the game in general feel like such a chore, that you might aswell not bother;
+- No PvE endgame, dungeons or anything of the sort ; ( All content updates are essentially new places to grind your life away)
+- A Cash shop with absurd prices where every update a new pay to win item shows up.
+-&gt; This game has beautiful graphics and an amazing combat system, however  the Devs are disconnected from the player base and seem more preoccupied with adding pay to win items and remastering the already beautiful graphics, instead of adding worthwhile content for PvE, and making progression smoother ( or actually possible ) without spending hundreds of *insert your currency here* to get the slightest upgrade .
+( Oh yeah, i also forgot to mention how to make any decent amount of money: you have to Afk grind professions. Try having your computer running the entire month. Food ? who needs that. Electricity bills will be #1 priority)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚡️Scyfe⚡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Desert Online is a fantastic idea and world setting, the combat is immersive with a high skill cap, the character creation is the best of any game released to date, its enhancing system is horrid while still being extremely unique and what keeps people playing, and the game looks absolutely stunning with a welcoming community.
+Black Desert Online's enhancing system is the games pinnacle as well as its downfall, while the enhancing system FEELS extremely rewarding when an enhancement succeeds you still end up losing millions on that enhancement. The games accessories break when an enhancement is failed unless cron stones are used (We'll cover these later) This means that if you have a boss gear accessory that is Tri(+18) and attempt to go to tet(+19) and your enhancement fails you've potentially lost BILLIONS of silver. The same applies to weapons but usually its just hundreds of millions not billions(Unless we're discussing a pen(+20) attempt) This will allow us to discuss the next topic. THE GRIND
+Black Desert Online is an EXTREMELY grind heavy game. You will need to spend hundreds of hours playing to reach softcap(253ap(Damage) The grind is extremely tedious as there aren't a whole lot of decent grinding zones. You'll be stuck in the same spot or region for quite a significant time before being able to move on to another area when you meet its recommended AP. You will grind for silver to enhance your gear or to buy pearl shop items(We'll discuss these next) Which are REQUIRED(unless you want to spend more than 10 hours per day grinding mobs and making trips) to progress in the game with decent Silver per hour. You can lifeskill but it will be a large money sink as most lifeskills are extremely tedious and in-efficient without pearl items to assist you in success rate/swimming speed/breathing time/gathering speed/ and processing success rate. Which transitions us into our next topic, Pearl items
+Pearl items are almost a must have if you plan on playing bdo seriously, this means investing losts of money into the game (about $200 for mob grinders and $400-$600 for lifeskillers) All these items are pay for convenience, Kakao makes its game unbearable without these pearl shop items. A must for all players is Pets, at least tier 2 for all of them(about $60-$80) Pets are absolutely necessary to your success in this game, they will loot items for you as well as give you boosts to certain xp values or knowledge gain chance. Lifeskillers, you're going to have to spend money on at least one pearl shop costume that are NOT able to be listed on the marketplace for silver. These costumes run about $22 USD and are essential for lifeskillers. This game is pay to win when it comes to maintaining a higher skill score. Outfit sets(cosmetic items that boost xp stats that are a pearl shop item BUT can be purchased from the marketplace using precious silver that could be going to enhancing) Can be melted down for CRON stones. Cron stones protect the enhancement level on an item from dropping on a failed enhancement chance or prevent an accessory from breaking on a failed enhancement. Which means, spending IRL money will save you potentially BILLIONS of silver that can be used to enhance other gear. Another ptw item from the item shop is Artisans memories. What these do is they make an item restore 4x their value on a repair. Meaning someone that spends money on these spends 4x less on repair materials for their boss gear which is extremely substantial.
+While Black Desert Online is a great online game for some, it is essentially having a second job and sinking every waking moment into this game if you have plans to progress, I can not recommend this game to the average gamer despite how much I enjoy it. The enhancing system is this games downfall and its rise, the pay to win is too much handle if you're a ftp player and Kakao is a greedy company out for that dough. If you like grind maybe this game is for you. But if you dont, Do not purchase this game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthianne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-05-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROS
+[Combat &amp; Gameplay]
+- By far the best combat system in any MMO, hands down
+- Very interesting skill points system, focusing on killing enemies instead of lvling up
+- Amazing graphics, realistic, original
+- Excellent world design. All the areas aren't just tiny ''hunting grounds''
+- Very generous towards you. Constantly gives you  inventory expansions, gear, and other things you find useful in your journey, making you feel like the Pay2Win claim is quite a bit undermined.
+- Classes are variable and changes at lvl 56 with the awakening.
+- Armor rental. For the first time ever, i find a game where i actually have great use of renting armor. It's more or less free as well, as you get back the 'contribution points' you spent on renting the armor when returning it. This system is great and beginners like myself should take great advantage of it.
+- Extremely complex 'society mechanics' within the game in comparison to other games
+- Intriguing storyline. Would recommend skipping everything as we all probably do, but focus on the cutscenes and the shadowy companion. Watching him grow and transform is really exciting, and it makes you want to keep going just to see how far does this little guy really go
+[Community &amp; Social aspect]
+- Great community in terms of chatting, lots of fun topics and trash talk, discussions, help, and other
+- The Marketplace is complex at first, but it's very easy to list your own items and quickly gain currency to buy yourself new equipment
+- Items in Markeplace are relatively cheap for starters, while the really good items have their strong values for the hardcore people
+- There is enough guilds recruiting the new players and try to bring them in and help them out
+[Misc]
+- Either the third or fourth most popular MMO out there right now, WoW being first with FFXIV following just after, and then comes either this game or Runescape. Should tell you why so many people play it
+- Incredible detail to character customization
+- The 'Esc' menu, although can be hard to navigate, has about everything you could need if you can't find something otherwise
+CONS
+[Combat &amp; Gameplay]
+- Combat system is basically Mortal Kombat. Lots of complex combos and patterns to remember. Luckily, you have a hotbar. I recommend learning the basic abilities while putting the more complex-performed abilities on the hotbar, as well as utilities like the horse flute if you've got an explorer's package and health potions.
+- Combat is a cakewalk up untill 30, then monsters get progressively tankier up untill 40, where they start to get slightly more difficult. Up at 50 you're likely to die quite a few times if you're not paying attention to your health. Monsters get much tankier and do harsh damage. This is not really a con, but this curve is rather quick and can take you by surprise.
+- Game is pretty lonely. Even if you bring a friend with you, it doesn't appear to be much connection in terms of doing activities together. It's focused on yourself and your journey is going the much like a single-player experience, but the world is still filled with life. Guilds and PvP, as well as wars is where the game shines and brings you out of the lonely wandering.
+- Guiding system is sometimes missleading and in some cases bugs out.
+- Server lag spikes can happen at peak times. In personal experience it's been minor and not a significant issue
+- Lots of trees and graphics popping in. Very noticable unless you play on ultra high, which rarely a standard gaming rig can handle
+- As any MMO, classes tend to be unbalanced in PvP and 1v1's are rarely a fair matchup.
+- Easy to exhaust and burn yourself out. Take a break every now and then
+-The complex society mechanics can sometimes feel inefficient, such as your horse is in the stable in the town you left it at, 4000 metres away, or your good weapon you couldn't equip at the time is a 15-minute walk away because you had put it in the storage in some city you probably can't even remember
+- Game can be quite daunting. The world is as huge as the elder scrolls universe and it's easy to get side-tracked and get lost
+[Community &amp; Social aspect]
+- In the European region, there is a lot of non-english speaking people in the global chats. Primarily Germans, Dutch, and Polish, as well as French
+- Cost energy points to talk in Roleplay/Server/World chat. This makes sense, avoiding global channels from being spammed, but it can be frustrating because there's lots of great memes and conversations you might want to take part in, but you have to make the decision between chilling over there or saving your energy for lifeskills or conversing with NPCs
+- Turn off system notifications or get spammed every 0.5 seconds in the cat with ''X has gotten Y!'' Honestly i have no idea why this is on by default.
+- No 1-on-1 trading, most probably due to an attempt to stop global chats from spamming ''WTB/WTS'', although it still happens
+- There's something about a trading fee percentage unless you get a Value Pack.
+[Misc]
+- While the game is generous and gives you lots of stuff through your journey, one thing it gives you early on is a 7-day Value Pack. It's great, really, but the problem is that this is a marketing strategy in order to get you used to having the benefits of the pack straight off the bat, so once it actually depletes you feel like you're playing at a 'disadvantage' when in reality you're playing vanilla. It's an attempt at making you want to subscribe for the value pack. If you can see past this, then it is only more power to you because you get a 7-day Value Pack free! Additionally, it also gives you an idea of what the Value Pack offers.
+- Very large file. Somewhere around 49GB, which might be problematic for some
+- Gender locked classes. I absolutely hate this. Feels like you're playing as somebody. Somebody not being yourself. It makes it hard for me to get immersed in the world if it becomes more of a movie, because the character i play is not even the same gender so how would i personalize it to my liking to get myself in to the world? I forgot to mention that some classes have a male/female equivalent, such as the Kunoichi being a female version of the Ninja- However Kunoichi still differentiates at lvl 56 with the awakening, getting a chakram instead of a katan and turns more AoE-based and ranged. While most clases have a gender equivalent, they still do differ just a tad bit.
+- You really, really do need pets and potentially weight efficiency. People saying you can buy pearls off the market or pets are kind of - kind of not wrong, because the problem isn't that you won't be able to afford it, the problem is that everyone has the money for it, meaning as soon as it shows up on the market, it's gone in an instant, making it very hard to actually buy cash shop items for ingame currency
+-Random banter-
+I can't talk about lifeskills as i haven't spent enough time on it. All i can say is, the amount of hours-vs-price you'll be paying is highly likely to be worth it. Game is flawed and can feel like it's not a full experience just because of how ridiculously huge it is and all the activities to do- Feels like you're basically never going to finish, as well as the cash shop makes you feel like you miss out and waste time because you're not paying to have efficiency.
+Overall this game is surely not like any MMO i've played. It might look generic at first with a desert type theme or a forest theme, but if you pay attention, it really is much more original and not just ''Ugh great, it's that forest area like in all other MMOs''. I usually hate forests in MMOs, they tend to be the most generic and standard template out there, but it really, really feels original here. I can't stress that enough. There is a ton of beautiful areas you can just sit down and breathe in for a bit.
+I was going to add critiques against this review here, but i don't have enough space, the review has reached its cap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebba</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +1349,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -660,6 +1370,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -704,7 +1419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +1429,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,7 +1455,7 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4267,4 +4986,1963 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:L55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="182.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>632.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2064.1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1230.6</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>763</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>593</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>410.9</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>764</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3054.4</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>876.8</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2390.8</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>532.4</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>887.2</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>311.8</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>449</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1863</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>941.9</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>749</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1666.3</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>7293</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>12039</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>7377</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>748</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>821.8</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>2947.1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/protege/sheet.xlsx
+++ b/protege/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Counter-Strike: Global Offensive (CS: GO) expands upon the team-based action gameplay that it pioneered when it was launched 19 years ago. CS: GO features new maps, characters, weapons, and game modes, and delivers updated versions of the classic CS content (de_dust2, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">21-08-2012</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">10-12-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
+    <t xml:space="preserve">true</t>
   </si>
   <si>
     <t xml:space="preserve">very nice game ~!</t>
@@ -963,6 +963,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">玲音</t>
     </r>
@@ -1345,9 +1346,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1375,6 +1377,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1419,7 +1422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1432,18 +1435,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1455,26 +1462,27 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="235.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="240.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1539,7 @@
       <c r="I2" s="0" t="n">
         <v>39.99</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -1863,10 +1871,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3628,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,10 +3769,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,10 +4054,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,13 +4800,14 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,10 +4952,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,23 +5009,25 @@
   </sheetPr>
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="182.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6022,7 +6038,7 @@
       <c r="K29" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>268</v>
       </c>
     </row>

--- a/protege/sheet.xlsx
+++ b/protege/sheet.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tags" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="pusblisher" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="genres" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="features" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="developer" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="franchise" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="franchise" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="features" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="developer" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="reviews" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">false</t>
   </si>
   <si>
-    <t xml:space="preserve">21-08-2012</t>
+    <t xml:space="preserve">2012-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">Very Positive</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Indivisible is a hand drawn action RPG platformer from Lab Zero, creators of the critically acclaimed Skullgirls! Set in a huge fantasy world, Indivisible tells the story of Ajna, a fearless girl with a rebellious streak who sets out on a quest to save everything she knows from being destroyed.</t>
   </si>
   <si>
-    <t xml:space="preserve">08-10-2019</t>
+    <t xml:space="preserve">2019-10-08</t>
   </si>
   <si>
     <t xml:space="preserve">Mostly Positive</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">The world has been thrown into chaos by an ancient evil from another dimension. As one of the last remnants of humanity, you must set out alone or alongside up to two other survivors to face down hordes of deadly enemies to try to carve a foothold, rebuild, and retake what was lost.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-08-2019</t>
+    <t xml:space="preserve">2019-08-19</t>
   </si>
   <si>
     <t xml:space="preserve">Remnant: From the Ashes</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">SCS Software</t>
   </si>
   <si>
-    <t xml:space="preserve">12-10-2012</t>
+    <t xml:space="preserve">2012-10-12</t>
   </si>
   <si>
     <t xml:space="preserve">Overwhelmingly Positive</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">The only aim in Rust is to survive. To do this you will need to overcome struggles such as hunger, thirst and cold. Build a fire. Build a shelter. Kill animals for meat. Protect yourself from other players, and kill them for meat. Create alliances with other players and form a town. Do whatever it takes to survive.</t>
   </si>
   <si>
-    <t xml:space="preserve">08-02-2018</t>
+    <t xml:space="preserve">2018-02-08</t>
   </si>
   <si>
     <t xml:space="preserve">Rust</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Cities: Skylines</t>
   </si>
   <si>
-    <t xml:space="preserve">10-03-2015</t>
+    <t xml:space="preserve">2015-03-10</t>
   </si>
   <si>
     <t xml:space="preserve">DEFEND YOUR WORLD. DESTROY THEIRS. Total War: WARHAMMER II is a strategy game of titanic proportions. Choose from four unique, varied factions and wage war your way – mounting a campaign of conquest to save or destroy a vast and vivid fantasy world.  This is a game of two halves – one a turn-based open-world campaign, and the other intense, tactical real-time battles across the fantastical landscapes of the New World.Play how you choose – delve into a deep engrossing campaign, experience unlimited replayability and challenge the world in multiplayer with a custom army of your favourite units. Total War: WARHAMMER II offers hundreds of hours of gameplay and no two games are the same. World-Spanning ConquestEngage in statecraft, diplomacy, exploration and build your empire, turn by turn. Capture, build and manage teeming settlements and recruit vast armies. Level up Legendary Lords and Heroes and arm them with mythical weapons and armour. Negotiate alliances or declare Total War to subjugate any that stand between you and your goal. Epic Real-Time BattlesCommand thousands-strong legions of soldiers in intense tactical battles. Send forth ferocious, twisted monsters, fire-breathing dragons and harness powerful magic. Utilise military strategies, lay ambushes, or use brute force to turn the tide of combat and lead your forces to victory.The second in a trilogy and sequel to the award-winning Total War: WARHAMMER, Total War: WARHAMMER II brings players a breath-taking new narrative campaign, set across the vast continents of Lustria, Ulthuan, Naggaroth and the Southlands. The Great Vortex Campaign builds pace to culminate in a definitive and climactic endgame, an experience unlike any other Total War title to date.Playing as one of 8 Legendary Lords across 4 iconic races from the world of Warhammer Fantasy Battles, players must succeed in performing a series of powerful arcane rituals in order to stabilise or disrupt The Great Vortex, while foiling the progress of the other races. Each Legendary Lord has a unique geographical starting position, and each race offers a distinctive new playstyle with unique campaign mechanics, narrative, methods of war, armies, monsters, Lores of Magic, legendary characters, and staggering new battlefield army abilities.Shortly after launch, owners of both the original game and Total War™ WARHAMMER II will gain access to the colossal third campaign. Exploring a single open-world epic map covering the Old World and the New World, players may embark on monumental campaigns as any owned Race from both titles.Conquer the world, togetherEach of the Races in Total War™ WARHAMMER II will be playable in single and multiplayer campaign, plus custom and multiplayer battles. As the two Legendary Lords for each race all have their own unique campaign start positions, you’ll be able to play a 2-player co-op campaign as the same race. If you own both parts 1 and 2, you’ll be able to play in multiplayer as any of the races you own.  The World of Total War: WARHAMMER IIMillennia ago, besieged by a Chaos invasion, a conclave of High Elf mages forged a vast, arcane vortex. Its purpose was to draw the Winds of Magic from the world as a sinkhole drains an ocean, and blast the Daemonic hordes back to the Realm of Chaos. Now the Great Vortex falters, and the world again stands at the brink of ruin.Powerful forces move to heal the maelstrom and avert catastrophe. Yet others seek to harness its terrible energies for their own bitter purpose. The race is on, and the very fate of the world will lie in the hands of the victor. Prince Tyrion, Defender of Ulthuan, guides the High Elves in their desperate efforts to stabilise the vortex as it roils above their home continent.Atop his palanquin-throne, the Slann Mage-Priest Mazdamundi directs his Lizardmen war-hosts as they surge northward from Lustria. He, too, is intent on preventing cataclysm, though the methods of The Old Ones must prevail. The Witch King Malekith and his sadistic Dark Elf hordes spew forth from Naggaroth and their labyrinthine Black Arks. He tastes great weakness in the vortex – and great opportunity in its demise.Meanwhile the Skaven, led by Queek Headtaker, stir in their foetid subterranean tunnels. There they multiply unchecked and look hungrily towards the surface, their motives obscured. The time for revelation is nigh…Four races, four outcomes, a single goal: control of the Great Vortex, for good or ill.</t>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">Total War, Warhammer</t>
   </si>
   <si>
-    <t xml:space="preserve">28-09-2017</t>
+    <t xml:space="preserve">2017-09-28</t>
   </si>
   <si>
     <t xml:space="preserve">Total War: WARHAMMER II</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Nine distinct classes provide a broad range of tactical abilities and personalities. Constantly updated with new game modes, maps, equipment and, most importantly, hats!</t>
   </si>
   <si>
-    <t xml:space="preserve">10-10-2007</t>
+    <t xml:space="preserve">2007-10-10</t>
   </si>
   <si>
     <t xml:space="preserve">Team Fortress 2</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">War Thunder is the most comprehensive free-to-play, cross-platform, MMO military game for Windows, Linux, Mac and PlayStation®4 dedicated to aviation, armoured vehicles, and naval craft from World War II and the Cold War.</t>
   </si>
   <si>
-    <t xml:space="preserve">15-08-2013</t>
+    <t xml:space="preserve">2013-08-15</t>
   </si>
   <si>
     <t xml:space="preserve">War Thunder</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">Monster Hunter</t>
   </si>
   <si>
-    <t xml:space="preserve">09-08-2018</t>
+    <t xml:space="preserve">2018-08-09</t>
   </si>
   <si>
     <t xml:space="preserve">MONSTER HUNTER: WORLD</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">Black Desert Online is a sandbox, living-world MMORPG. Experience fast-paced, action-packed combat, hunt monsters and huge bosses, fight with friends in a guild to siege nodes and conquer castles, train your life skills such as fishing, trading, crafting, cooking, and much more!</t>
   </si>
   <si>
-    <t xml:space="preserve">24-05-2017</t>
+    <t xml:space="preserve">2017-05-24</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed</t>
@@ -527,6 +527,9 @@
     <t xml:space="preserve">Kakao Games Europe B.V.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cities Skylines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multi-player</t>
   </si>
   <si>
@@ -629,10 +632,7 @@
     <t xml:space="preserve">Pearl Abyss</t>
   </si>
   <si>
-    <t xml:space="preserve">Cities Skylines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12-2015</t>
+    <t xml:space="preserve">2015-12-10</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Prostagma</t>
   </si>
   <si>
-    <t xml:space="preserve">09-10-2019</t>
+    <t xml:space="preserve">2019-10-09</t>
   </si>
   <si>
     <t xml:space="preserve">Waiting 5 (4,5?) years to get "My OCs (do not steal) fighting evil - The Game".
@@ -740,7 +740,7 @@
     <t xml:space="preserve">jaakap</t>
   </si>
   <si>
-    <t xml:space="preserve">24-08-2019</t>
+    <t xml:space="preserve">2019-08-24</t>
   </si>
   <si>
     <t xml:space="preserve">To anyone who lost their savefile after updating windows. Go to your Windows.old file and navigate to
@@ -753,7 +753,7 @@
     <t xml:space="preserve">Dakk</t>
   </si>
   <si>
-    <t xml:space="preserve">31-08-2019</t>
+    <t xml:space="preserve">2019-08-31</t>
   </si>
   <si>
     <t xml:space="preserve">(RFTA) is a hybrid between a traditional 3rd person Shooter RPG, such as
@@ -823,7 +823,7 @@
     <t xml:space="preserve">CDub</t>
   </si>
   <si>
-    <t xml:space="preserve">09-09-2019</t>
+    <t xml:space="preserve">2019-09-09</t>
   </si>
   <si>
     <t xml:space="preserve">This is always the burning question I ask myself when a new prosperous game is released and like many gamers out there, I have a
@@ -844,7 +844,7 @@
     <t xml:space="preserve">Wildcard777</t>
   </si>
   <si>
-    <t xml:space="preserve">04-12-2014</t>
+    <t xml:space="preserve">2014-12-04</t>
   </si>
   <si>
     <t xml:space="preserve">2 Steam Awards 2016 wins (from 2 nominations). I mean, how could a truck game win such prestigious awards? Just like Donald Trump - it's a good game, even if you hate to admit it.
@@ -860,7 +860,7 @@
     <t xml:space="preserve">Jake T.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-12-2014</t>
+    <t xml:space="preserve">2014-12-19</t>
   </si>
   <si>
     <t xml:space="preserve">I know most "XYZ Simulator" games are utter crap, but this is the real deal. A great game that still gets updates and new content all the time. From the developers blog, one can see that they really love what they do, and they really love this game. Not really a helpful review, is it? Well, I just wanted to say I love this game, and the developers deserve lots of respect, unlike some spoiled brats that call themselves developers these days...</t>
@@ -882,7 +882,7 @@
     <t xml:space="preserve">sambedford101</t>
   </si>
   <si>
-    <t xml:space="preserve">26-02-2016</t>
+    <t xml:space="preserve">2016-02-26</t>
   </si>
   <si>
     <t xml:space="preserve">Intresting Game</t>
@@ -891,7 +891,7 @@
     <t xml:space="preserve">Stumk</t>
   </si>
   <si>
-    <t xml:space="preserve">22-08-2014</t>
+    <t xml:space="preserve">2014-08-22</t>
   </si>
   <si>
     <t xml:space="preserve">FUNNNN! i really reccomend this game to all you guys who dont have it. like minecraft with guns! but rememeber this rule... DONT TRUST ANYONE!xDa</t>
@@ -900,7 +900,7 @@
     <t xml:space="preserve">WALDO</t>
   </si>
   <si>
-    <t xml:space="preserve">23-08-2014</t>
+    <t xml:space="preserve">2014-08-23</t>
   </si>
   <si>
     <t xml:space="preserve">Awesome survival Game to play with friends</t>
@@ -922,7 +922,7 @@
     <t xml:space="preserve">15PoundsOfJelly</t>
   </si>
   <si>
-    <t xml:space="preserve">20-06-2015</t>
+    <t xml:space="preserve">2015-06-20</t>
   </si>
   <si>
     <t xml:space="preserve">Really great game with great city, traffic mechanics.
@@ -934,7 +934,7 @@
     <t xml:space="preserve">Syntax | arl</t>
   </si>
   <si>
-    <t xml:space="preserve">17-08-2015</t>
+    <t xml:space="preserve">2015-08-17</t>
   </si>
   <si>
     <t xml:space="preserve">Best city builder I have ever played. This game is like the fairly new Sim City but with alot more put into it.</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">GSovereign</t>
   </si>
   <si>
-    <t xml:space="preserve">18-08-2015</t>
+    <t xml:space="preserve">2015-08-18</t>
   </si>
   <si>
     <t xml:space="preserve">Excellent sim, rather hard at 1st</t>
@@ -952,7 +952,7 @@
     <t xml:space="preserve">OhioMan</t>
   </si>
   <si>
-    <t xml:space="preserve">14-11-2015</t>
+    <t xml:space="preserve">2015-11-14</t>
   </si>
   <si>
     <t xml:space="preserve">11/10 - Better than Simcity!</t>
@@ -978,7 +978,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">04-10-2015</t>
+    <t xml:space="preserve">2015-10-04</t>
   </si>
   <si>
     <t xml:space="preserve">I agree with all the comments on how awsome it is and i agree to buy it</t>
@@ -987,7 +987,7 @@
     <t xml:space="preserve">Coins</t>
   </si>
   <si>
-    <t xml:space="preserve">08-05-2019</t>
+    <t xml:space="preserve">2019-05-08</t>
   </si>
   <si>
     <t xml:space="preserve">I've been stuck at home due to cancer, in constant pain 24 hours a day for the past 5 years. I can honestly say, it only became bearable when Total War Warhammer came out. Thanks to both this and the previous game, I've managed to put up with it. I am a huge Warhammer fan, and not only have the stuck to the lore wherever reasonable, they have filled out improved pieces that Games Workshop never really touched! (zombie pirates anyone?)
@@ -997,7 +997,7 @@
     <t xml:space="preserve">Joey Wheeler</t>
   </si>
   <si>
-    <t xml:space="preserve">01-09-2019</t>
+    <t xml:space="preserve">2019-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">This game has ruined strategy games for me.
@@ -1012,7 +1012,7 @@
     <t xml:space="preserve">HadesWTF</t>
   </si>
   <si>
-    <t xml:space="preserve">22-10-2017</t>
+    <t xml:space="preserve">2017-10-22</t>
   </si>
   <si>
     <t xml:space="preserve">163 hours later, I've finally beaten this thing. It's a beast -- a sprawling grand strategy game full of nuance, lore, and emotionally engaging content. The AI is much smarter now. I had about a 100-hour learning curve, bouncing between different factions and trying different tactics until I really figured out how to play the game. This thing is amazing. I have to put it down for awhile so I can go get the million things done that I've been neglecting, but here are some pointers:
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">Malum Venenum</t>
   </si>
   <si>
-    <t xml:space="preserve">29-01-2018</t>
+    <t xml:space="preserve">2018-01-29</t>
   </si>
   <si>
     <t xml:space="preserve">My most epic Total War: Warhammer moment: When my line of Chaos Chosen was about to charge into enemy line, one guy screamed “BLOOD FOR THE BLOOD GOD”,and then the whole army continued “SKULLS FOR THE SKULL THRONE”</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">DON_Shake</t>
   </si>
   <si>
-    <t xml:space="preserve">14-02-2018</t>
+    <t xml:space="preserve">2018-02-14</t>
   </si>
   <si>
     <t xml:space="preserve">There's been a lot of talk since November on the discussion boards involving uninformed consumers not understanding how this iteration of Total War works DLC-wise. For that reason, I'd like to take a second to tell you, the potential customer, what you're getting into, and why I still feel it's worth it.
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">☢standardheadache☢</t>
   </si>
   <si>
-    <t xml:space="preserve">07-07-2016</t>
+    <t xml:space="preserve">2016-07-07</t>
   </si>
   <si>
     <t xml:space="preserve">♥♥♥♥ing fantastic</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">Eflit</t>
   </si>
   <si>
-    <t xml:space="preserve">24-07-2014</t>
+    <t xml:space="preserve">2014-07-24</t>
   </si>
   <si>
     <t xml:space="preserve">I recommend this game 100% to people who want to try a combat game that doesn't use actual guns on the battlefield. It uses very unique weapons and classes. It's fun trying out the classes, but your KDR in-game might be bad at first. You just need to find a class you're best at and you'll do just fine. For me, the Pyro was an instant success. Pyro is a class in TF2 that gives you the starting items: Flamethrower, Shotgun, Axe. If you have fun with it, you'll notice items you want, or items you see people commonly using... so get out there and you might be able to get one of 'em.</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">Santiago Franco</t>
   </si>
   <si>
-    <t xml:space="preserve">08-07-2016</t>
+    <t xml:space="preserve">2016-07-08</t>
   </si>
   <si>
     <t xml:space="preserve">really good game</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">UNIBEARNATION1997</t>
   </si>
   <si>
-    <t xml:space="preserve">03-01-2014</t>
+    <t xml:space="preserve">2014-01-03</t>
   </si>
   <si>
     <t xml:space="preserve">Team Fortress 2 is a very, VERY addicting game to play, It has lots and lots of gamemodes and maps for you try out, Official and   Not official, either way, They're all very good. What is the best part about this game? The community. You can trade for weapons, miscs, and best of all in this category, HATS. And this is all Free To Play! (Obviously) Some parts might make you rage, but most of the time, its an amazing game to have fun in, and blow up people.</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">Locus</t>
   </si>
   <si>
-    <t xml:space="preserve">06-07-2014</t>
+    <t xml:space="preserve">2014-07-06</t>
   </si>
   <si>
     <t xml:space="preserve">I love this game, it's very funny. It's shooter, also dance simulator, fly simulator, kill-yourself simulator and more. I've played this game 300+ hours and I like it.</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">[DELETED]</t>
   </si>
   <si>
-    <t xml:space="preserve">28-11-2014</t>
+    <t xml:space="preserve">2014-11-28</t>
   </si>
   <si>
     <t xml:space="preserve">If you want to win this game, just fly Ameriblubber in Realistic Battles, or Brits and Russians in Arcade.</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">elia$</t>
   </si>
   <si>
-    <t xml:space="preserve">25-08-2015</t>
+    <t xml:space="preserve">2015-08-25</t>
   </si>
   <si>
     <t xml:space="preserve">Awesome!
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">Frost White</t>
   </si>
   <si>
-    <t xml:space="preserve">05-12-2014</t>
+    <t xml:space="preserve">2014-12-05</t>
   </si>
   <si>
     <t xml:space="preserve">When i tried out the game it was very fun. Though i had to delete because of memory space issues, it was a rather fun game will i had it. War Thunder takes you to the pacific or european battle fields where you have the choice to engage in in single player missions or take the fight online against other players in a massive team death match.</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">DemonTiger8</t>
   </si>
   <si>
-    <t xml:space="preserve">06-12-2014</t>
+    <t xml:space="preserve">2014-12-06</t>
   </si>
   <si>
     <t xml:space="preserve">I SHOULD BE ABLE TO KAMIKAZE ♥♥♥♥♥♥♥♥♥♥♥♥S THIS IS BULLLLLLSHIT</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">Chaotic</t>
   </si>
   <si>
-    <t xml:space="preserve">24-03-2019</t>
+    <t xml:space="preserve">2019-03-24</t>
   </si>
   <si>
     <t xml:space="preserve">I'm an older woman, and I find that this game appeals to all ages.  I have sooo many hours into this game and I love it.  I admit I need my sons help and his friends to get me through things sometimes when it's a monster that's kicking my butt.  I'm now at the stage where I can do it on my own.  I think they did an amazing job with this game.  It doesn't matter how old you are, this is so fun.  I highly recommend this game.  Thanks for doing such a great job with this game.</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">shantiwater</t>
   </si>
   <si>
-    <t xml:space="preserve">06-06-2019</t>
+    <t xml:space="preserve">2019-06-06</t>
   </si>
   <si>
     <t xml:space="preserve">I’m not a fan of coop games and I really hate grinding but the goal of this game is grinding in coop. After seeing lots of positive feedback I decided to jump on this game and I was very pleasantly surprised.
@@ -1194,7 +1194,7 @@
     <t xml:space="preserve">Kosmozuikis</t>
   </si>
   <si>
-    <t xml:space="preserve">21-08-2019</t>
+    <t xml:space="preserve">2019-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">I'm in my mid 40's so I don't always have a lot of time to play games but Monster Hunter: World has me hooked. Since I only can devote about an hour or so every night I just set a goal of what I want to do such as killing or trapping Anjanath to gather parts for the armor set. It's slow going for me, but I don't mind taking my time because the fights are fantastic and sometimes last 20 minutes or more of pure adrenaline-pulsing bliss where a well-timed Palico heal or quick dodge or a perfectly aimed hit makes you feel like you are actually fighting a real monster and that your own life is really on the line.
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">AtomicTsar</t>
   </si>
   <si>
-    <t xml:space="preserve">09-11-2018</t>
+    <t xml:space="preserve">2018-11-09</t>
   </si>
   <si>
     <t xml:space="preserve">If you ever get bored of the end-game grind, here's a small list of things to do that may make you feel a little happy.
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">sciiyla</t>
   </si>
   <si>
-    <t xml:space="preserve">14-06-2019</t>
+    <t xml:space="preserve">2019-06-14</t>
   </si>
   <si>
     <t xml:space="preserve">Pretty fun, both solo and multi, don't believe the mixed reviews those were all due to the bad launch, the game is a very solid edition to the franchise and as its own game. It's very friendly to newcomers and challenge ramps up as you progress through the vibrant New World.
@@ -1230,7 +1230,7 @@
     <t xml:space="preserve">Ragosta tin Dei</t>
   </si>
   <si>
-    <t xml:space="preserve">23-08-2018</t>
+    <t xml:space="preserve">2018-08-23</t>
   </si>
   <si>
     <t xml:space="preserve">LOOK AT MY HOURS PLAYED. I waited 15 months to write a review. I've pretty much done it all. I'm running around at softcap with pretty much all content acquired. This game IS damn amazing. Today, 24th of August 2018, they made the game truly pay to win. I'm not talking "added a ghillie suit to the cash shop" or anything like that, I mean full-blown swipe your credit card to become stronger than anyone who put effort into the game or is skilled at pvp. If you as a gamer, value skill and talent over who has richer parents than for the love of god stay away. There is so much more fun to be had elsewhere. This game is officially dead with this change. I urge all players to leave a negative review to alert people who may fall for this scam-game.
@@ -1240,7 +1240,7 @@
     <t xml:space="preserve">Strix</t>
   </si>
   <si>
-    <t xml:space="preserve">17-06-2017</t>
+    <t xml:space="preserve">2017-06-17</t>
   </si>
   <si>
     <t xml:space="preserve">So, where to even begin. I guess the most important thing here is that this is certainly not the MMO for everybody. This MMO manages to pack in something for every kind of player out there, but that actually doesn't mean it will appeal to everyone.
@@ -1260,7 +1260,7 @@
     <t xml:space="preserve">TheScrumpy [NMT]</t>
   </si>
   <si>
-    <t xml:space="preserve">26-08-2018</t>
+    <t xml:space="preserve">2018-08-26</t>
   </si>
   <si>
     <t xml:space="preserve">This game is beautiful and Fun for a couple hundred hours but :
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">⚡️Scyfe⚡</t>
   </si>
   <si>
-    <t xml:space="preserve">29-04-2019</t>
+    <t xml:space="preserve">2019-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">Black Desert Online is a fantastic idea and world setting, the combat is immersive with a high skill cap, the character creation is the best of any game released to date, its enhancing system is horrid while still being extremely unique and what keeps people playing, and the game looks absolutely stunning with a welcoming community.
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Arthianne</t>
   </si>
   <si>
-    <t xml:space="preserve">28-05-2017</t>
+    <t xml:space="preserve">2017-05-28</t>
   </si>
   <si>
     <t xml:space="preserve">PROS
@@ -1346,10 +1346,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1422,7 +1421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1435,22 +1434,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1462,15 +1457,16 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="235.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="240.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.14"/>
@@ -1479,10 +1475,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1499,7 @@
       <c r="I1" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="0" t="s">
@@ -1539,7 +1534,7 @@
       <c r="I2" s="0" t="n">
         <v>39.99</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -1571,7 +1566,7 @@
       <c r="I3" s="0" t="n">
         <v>39.99</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
@@ -1606,7 +1601,7 @@
       <c r="I4" s="0" t="n">
         <v>19.99</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
@@ -1638,7 +1633,7 @@
       <c r="I5" s="0" t="n">
         <v>29.99</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
@@ -1673,7 +1668,7 @@
       <c r="I6" s="0" t="n">
         <v>27.99</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
@@ -1708,7 +1703,7 @@
       <c r="I7" s="0" t="n">
         <v>59.99</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="0" t="s">
@@ -1740,7 +1735,7 @@
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="0" t="s">
@@ -1772,7 +1767,7 @@
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="0" t="s">
@@ -1807,7 +1802,7 @@
       <c r="I10" s="0" t="n">
         <v>59.99</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="0" t="s">
@@ -1839,7 +1834,7 @@
       <c r="I11" s="0" t="n">
         <v>9.99</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="0" t="s">
@@ -1871,11 +1866,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,11 +3622,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,11 +3762,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,737 +4040,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>730</v>
+        <v>227300</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>730</v>
+        <v>255710</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>730</v>
+        <v>594570</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>730</v>
+        <v>582010</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>730</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>730</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>730</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>730</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>421170</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>617290</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>617290</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>617290</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>617290</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>617290</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>227300</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>252490</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>255710</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>594570</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>594570</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>594570</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>594570</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>236390</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>582010</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>582660</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4797,17 +4100,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4117,7 @@
         <v>730</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,111 +4125,711 @@
         <v>730</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>421170</v>
+        <v>730</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>617290</v>
+        <v>730</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>227300</v>
+        <v>730</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>252490</v>
+        <v>730</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>255710</v>
+        <v>730</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>594570</v>
+        <v>730</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>594570</v>
+        <v>421170</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>594570</v>
+        <v>421170</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>440</v>
+        <v>421170</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>236390</v>
+        <v>421170</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>582010</v>
+        <v>421170</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>582010</v>
+        <v>421170</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <v>421170</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
         <v>582660</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>195</v>
+      <c r="B85" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4946,49 +4848,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>227300</v>
+        <v>730</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>255710</v>
+        <v>730</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>594570</v>
+        <v>421170</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
+        <v>617290</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>227300</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>252490</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>255710</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>594570</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>236390</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>582010</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>44</v>
+      <c r="B13" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>582010</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>582660</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5010,28 +4999,26 @@
   <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="182.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5066,7 +5053,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5101,7 +5088,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5136,7 +5123,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5171,7 +5158,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5206,7 +5193,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5241,7 +5228,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5276,7 +5263,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5311,7 +5298,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5346,7 +5333,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5381,7 +5368,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5416,7 +5403,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5451,7 +5438,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5486,7 +5473,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5521,7 +5508,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5553,7 +5540,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5588,7 +5575,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5623,7 +5610,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5658,7 +5645,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5693,7 +5680,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5728,7 +5715,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5763,7 +5750,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5798,7 +5785,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5833,7 +5820,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5868,7 +5855,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5903,7 +5890,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5938,7 +5925,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -5973,7 +5960,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -6008,7 +5995,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -6038,12 +6025,12 @@
       <c r="K29" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -6078,7 +6065,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -6113,7 +6100,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6148,7 +6135,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -6183,7 +6170,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6218,7 +6205,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6253,7 +6240,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6288,7 +6275,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6323,7 +6310,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6358,7 +6345,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6393,7 +6380,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -6428,7 +6415,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -6463,7 +6450,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -6498,7 +6485,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -6533,7 +6520,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -6568,7 +6555,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6603,7 +6590,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -6638,7 +6625,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -6673,7 +6660,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -6708,7 +6695,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6743,7 +6730,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -6778,7 +6765,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -6813,7 +6800,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -6848,7 +6835,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -6883,7 +6870,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -6918,7 +6905,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C55" s="2" t="s">
